--- a/biology/Botanique/Jardin_Nicole-Maestracci/Jardin_Nicole-Maestracci.xlsx
+++ b/biology/Botanique/Jardin_Nicole-Maestracci/Jardin_Nicole-Maestracci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Nicole-Maestracci, anciennement jardin Serpollet, est un espace vert du 20e arrondissement de Paris, dans le quartier de Charonne.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est situé à l'angle du boulevard Davout, de la rue Serpollet, dont il occupe le côté impair, et la rue Louis-Lumière, dans le secteur du projet urbain Python-Duvernois[1],[2].
-La piscine Yvonne-Godard se trouve à proximité[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est situé à l'angle du boulevard Davout, de la rue Serpollet, dont il occupe le côté impair, et la rue Louis-Lumière, dans le secteur du projet urbain Python-Duvernois,.
+La piscine Yvonne-Godard se trouve à proximité.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin porte le nom de Nicole Maestracci (1951-2022), magistrate et membre du Conseil constitutionnel.
 </t>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « jardin Serpollet », du nom de la rue Serpollet voisine, a fait l'objet, en 2020, d'une rénovation et d'une extension, passant de 768 à 1 650 m2.
-Il devenu le « jardin Nicole-Maestracci » par délibération des 14, 15, 16 et 17 mars 2023 du Conseil de Paris[4].
+Il devenu le « jardin Nicole-Maestracci » par délibération des 14, 15, 16 et 17 mars 2023 du Conseil de Paris.
 </t>
         </is>
       </c>
